--- a/Document/TABLE_DESIGN.xlsx
+++ b/Document/TABLE_DESIGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\source\repos\Order\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF69E4D-AD2B-40E4-B816-082A2B443660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37259A-139D-448A-9535-D1E0D6C52A95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11265" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMAGE" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -305,6 +305,26 @@
   </si>
   <si>
     <t>NEWID()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESC_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_CLOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单是否关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +925,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1298,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1622,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4DFAB-4DBA-4801-87C8-E514232C889F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1767,6 +1787,28 @@
       <c r="D8" s="3"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1967,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5146F3A-85A4-4739-8CD1-C45EB909D3EB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Document/TABLE_DESIGN.xlsx
+++ b/Document/TABLE_DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\source\repos\Order\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37259A-139D-448A-9535-D1E0D6C52A95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1EFD2B-0608-4E43-B9D3-F50C2A91D439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -325,6 +325,22 @@
   </si>
   <si>
     <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_PRINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1642,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4DFAB-4DBA-4801-87C8-E514232C889F}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1808,6 +1824,28 @@
       </c>
       <c r="C10" s="10" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Document/TABLE_DESIGN.xlsx
+++ b/Document/TABLE_DESIGN.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\source\repos\Order\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1EFD2B-0608-4E43-B9D3-F50C2A91D439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48A25E6-B108-4693-B815-3901FBA216EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IMAGE" sheetId="9" r:id="rId1"/>
-    <sheet name="SHOP_DESK" sheetId="8" r:id="rId2"/>
-    <sheet name="SHOP" sheetId="7" r:id="rId3"/>
-    <sheet name="ORDER_DETAIL_FOOD" sheetId="6" r:id="rId4"/>
-    <sheet name="ORDER_DETAIL" sheetId="5" r:id="rId5"/>
-    <sheet name="ORDER_HEAD" sheetId="4" r:id="rId6"/>
-    <sheet name="FOOD_DETAIL" sheetId="3" r:id="rId7"/>
-    <sheet name="FOOD" sheetId="2" r:id="rId8"/>
-    <sheet name="FOOD_TYPE" sheetId="1" r:id="rId9"/>
+    <sheet name="LOGS" sheetId="10" r:id="rId1"/>
+    <sheet name="IMAGE" sheetId="9" r:id="rId2"/>
+    <sheet name="SHOP_DESK" sheetId="8" r:id="rId3"/>
+    <sheet name="SHOP" sheetId="7" r:id="rId4"/>
+    <sheet name="ORDER_DETAIL_FOOD" sheetId="6" r:id="rId5"/>
+    <sheet name="ORDER_DETAIL" sheetId="5" r:id="rId6"/>
+    <sheet name="ORDER_HEAD" sheetId="4" r:id="rId7"/>
+    <sheet name="FOOD_DETAIL" sheetId="3" r:id="rId8"/>
+    <sheet name="FOOD" sheetId="2" r:id="rId9"/>
+    <sheet name="FOOD_TYPE" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -341,6 +342,26 @@
   </si>
   <si>
     <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARAMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,11 +792,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300A995-5B53-48CA-97CE-EA6E2CE40961}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25DCAC-0E1C-4043-9A26-06124A0732C7}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B55D987-CB72-429E-AE72-2246DE839C12}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1113,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A122D-5A1A-4419-B2B3-B15CC53D0104}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1309,7 +1672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C22E8-7A8A-4805-B530-F2ADE7E5B03B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1494,7 +1857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A62B9A-1498-4753-AD48-BDF1D3B6CFE8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1656,11 +2019,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4DFAB-4DBA-4801-87C8-E514232C889F}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1855,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD2768-37BB-49A9-BF80-4D37AD0F37EE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2043,7 +2406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5146F3A-85A4-4739-8CD1-C45EB909D3EB}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2219,184 +2582,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Document/TABLE_DESIGN.xlsx
+++ b/Document/TABLE_DESIGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\source\repos\Order\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48A25E6-B108-4693-B815-3901FBA216EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39E621A-F94E-4B44-BDB5-F0DEA645E6C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGS" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="FOOD_DETAIL" sheetId="3" r:id="rId8"/>
     <sheet name="FOOD" sheetId="2" r:id="rId9"/>
     <sheet name="FOOD_TYPE" sheetId="1" r:id="rId10"/>
+    <sheet name="SYS_PARAM" sheetId="11" r:id="rId11"/>
+    <sheet name="SYS_PARAM_VALUE" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -362,6 +364,39 @@
   </si>
   <si>
     <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARAM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOP_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(80)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>sysdate()</t>
+  </si>
+  <si>
+    <t>PARAM_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +457,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +492,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -477,11 +539,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,6 +611,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300A995-5B53-48CA-97CE-EA6E2CE40961}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -958,7 +1082,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1130,6 +1254,343 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF92A3-A46B-4529-B249-86BAD48209C8}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C953CF6E-8794-42D7-AC0A-74EDECD96713}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Document/TABLE_DESIGN.xlsx
+++ b/Document/TABLE_DESIGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xulez\source\repos\Order\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingdee\Desktop\order-master\order-master\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39E621A-F94E-4B44-BDB5-F0DEA645E6C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFE0CA-AA2D-411D-A731-E0ECDC3712B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="2655" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGS" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PASSNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +394,108 @@
   <si>
     <t>店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ADMIN</t>
+  </si>
+  <si>
+    <t>是否管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>VISIBLE</t>
+  </si>
+  <si>
+    <t>是否可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>CUSTOM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOD_DETAIL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRINTER_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPITATION</t>
+  </si>
+  <si>
+    <t>茶位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>PARAM_NAME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
+    <t>IS_SHOW_MEMO</t>
+  </si>
+  <si>
+    <t>IS_SHOW_USER_COUNT</t>
   </si>
 </sst>
 </file>
@@ -917,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300A995-5B53-48CA-97CE-EA6E2CE40961}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1050,24 +1148,40 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1079,23 +1193,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1265,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1294,7 @@
       <c r="D5" s="3"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1308,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1340,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1238,7 +1352,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1249,6 +1363,34 @@
         <v>27</v>
       </c>
       <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1259,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF92A3-A46B-4529-B249-86BAD48209C8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1453,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1471,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1487,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1500,7 @@
       <c r="D5" s="3"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1394,10 +1536,10 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>46</v>
@@ -1405,12 +1547,23 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1423,14 +1576,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C953CF6E-8794-42D7-AC0A-74EDECD96713}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
@@ -1463,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
@@ -1481,13 +1635,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="F3" s="18"/>
     </row>
@@ -1499,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
@@ -1515,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="19"/>
@@ -1557,21 +1711,21 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>46</v>
@@ -1582,10 +1736,21 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1728,10 +1893,10 @@
     </row>
     <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
         <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -1744,10 +1909,10 @@
     </row>
     <row r="9" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -1910,10 +2075,10 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -1921,10 +2086,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -1939,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A122D-5A1A-4419-B2B3-B15CC53D0104}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2106,24 +2271,99 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>56</v>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2135,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C22E8-7A8A-4805-B530-F2ADE7E5B03B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2300,7 +2540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2309,6 +2549,36 @@
       </c>
       <c r="C11" s="10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2482,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4DFAB-4DBA-4801-87C8-E514232C889F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2628,48 +2898,89 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>56</v>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2681,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD2768-37BB-49A9-BF80-4D37AD0F37EE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2860,6 +3171,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5146F3A-85A4-4739-8CD1-C45EB909D3EB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,6 +3360,40 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
